--- a/data/long_bre/P18_1-Urba-long_bre.xlsx
+++ b/data/long_bre/P18_1-Urba-long_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,10 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +543,17 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +575,37 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -590,6 +618,10 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -599,37 +631,57 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,95</t>
+          <t>7,92</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,83</t>
+          <t>5,28</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,15</t>
+          <t>6,87</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>26,93%</t>
+          <t>9,62</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>41,73%</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>44,44%</t>
+          <t>31,27%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>46,89%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>43,18%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>60,66%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>7,03%</t>
         </is>
       </c>
     </row>
@@ -642,32 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 13,79</t>
+          <t>-0,08; 14,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 9,18</t>
+          <t>0,27; 9,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,01; 13,49</t>
+          <t>1,34; 12,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 61,75</t>
+          <t>3,13; 15,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,14; 99,15</t>
+          <t>-4,69; 7,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,64; 99,78</t>
+          <t>-0,72; 68,95</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1,82; 111,37</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>6,62; 95,4</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>14,7; 119,85</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-21,39; 51,67</t>
         </is>
       </c>
     </row>
@@ -675,37 +747,57 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-11,67</t>
+          <t>-13,03</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-12,25</t>
+          <t>-11,68</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-17,31</t>
+          <t>-17,46</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-17,8%</t>
+          <t>-7,55</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-17,1%</t>
+          <t>-7,65</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-24,76%</t>
+          <t>-19,73%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-16,46%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-24,78%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-11,88%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-11,89%</t>
         </is>
       </c>
     </row>
@@ -718,32 +810,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-18,44; -4,04</t>
+          <t>-19,73; -5,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-18,65; -4,2</t>
+          <t>-18,13; -3,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-23,93; -10,96</t>
+          <t>-23,92; -11,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-26,35; -6,63</t>
+          <t>-14,81; 4,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-25,05; -6,6</t>
+          <t>-15,6; 0,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-32,35; -16,53</t>
+          <t>-28,28; -8,42</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-24,4; -5,9</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-32,47; -16,92</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-21,98; 7,75</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-22,77; 0,83</t>
         </is>
       </c>
     </row>
@@ -751,37 +863,57 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,72</t>
+          <t>5,11</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,42</t>
+          <t>6,41</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,16</t>
+          <t>10,59</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>54,69%</t>
+          <t>-2,07</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>44,14%</t>
+          <t>6,37</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>72,62%</t>
+          <t>59,25%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>36,01%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>77,72%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-10,07%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>36,67%</t>
         </is>
       </c>
     </row>
@@ -794,74 +926,110 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,72; 8,5</t>
+          <t>1,29; 8,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,4; 13,64</t>
+          <t>-0,8; 12,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,48; 14,72</t>
+          <t>6,01; 15,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,16; 123,8</t>
+          <t>-15,26; 4,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,08; 96,73</t>
+          <t>-0,34; 12,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>25,01; 127,99</t>
+          <t>9,72; 126,53</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-5,9; 88,7</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>35,63; 139,81</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-48,69; 31,06</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-2,48; 86,26</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,83</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,85</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,23</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>43,54%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>140,55%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>24,68%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -874,70 +1042,114 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,84; 15,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,18; 20,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 10,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,18; 84,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>62,86; 275,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 74,14</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-14,58</t>
+          <t>8,95</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-17,35</t>
+          <t>14,58</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-10,85</t>
+          <t>3,81</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-21,93%</t>
+          <t>9,71</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-24,75%</t>
+          <t>7,85</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-15,74%</t>
+          <t>38,29%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>159,52%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>21,64%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>66,19%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>49,14%</t>
         </is>
       </c>
     </row>
@@ -950,32 +1162,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-22,15; -6,59</t>
+          <t>2,48; 15,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-26,11; -7,74</t>
+          <t>9,15; 21,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-18,02; -4,44</t>
+          <t>-2,09; 9,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-31,76; -10,32</t>
+          <t>0,33; 17,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-34,77; -12,84</t>
+          <t>-4,72; 18,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-24,81; -6,6</t>
+          <t>9,55; 78,23</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>80,82; 283,59</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-10,11; 66,41</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-1,94; 158,87</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-20,92; 177,77</t>
         </is>
       </c>
     </row>
@@ -983,37 +1215,57 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,74</t>
+          <t>-14,62</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,49</t>
+          <t>-17,61</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,62</t>
+          <t>-10,87</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>43,35%</t>
+          <t>-20,33</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>17,42%</t>
+          <t>-8,56</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>47,6%</t>
+          <t>-22,33%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-24,98%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-15,84%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-27,27%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-13,11%</t>
         </is>
       </c>
     </row>
@@ -1026,74 +1278,110 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 10,02</t>
+          <t>-21,84; -6,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 10,07</t>
+          <t>-25,18; -8,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,63; 11,92</t>
+          <t>-17,45; -3,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-9,81; 117,58</t>
+          <t>-29,01; -11,16</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-25,37; 60,79</t>
+          <t>-23,26; 5,69</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>9,42; 105,14</t>
+          <t>-31,82; -10,61</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-34,12; -13,82</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-24,23; -5,77</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-37,36; -16,08</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-32,74; 9,64</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>13,35</t>
+          <t>5,67</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,89</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,08</t>
+          <t>7,06</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>51,86%</t>
+          <t>10,62</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>23,17%</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>57,31%</t>
+          <t>50,77%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>14,86%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>51,52%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>98,66%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>3,81%</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1394,52 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,04; 27,36</t>
+          <t>-0,39; 11,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 13,07</t>
+          <t>-5,18; 9,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 16,57</t>
+          <t>1,9; 12,49</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,05; 155,68</t>
+          <t>4,59; 17,26</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-44,48; 181,32</t>
+          <t>-10,37; 10,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-20,94; 203,9</t>
+          <t>-6,09; 138,92</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-20,28; 57,48</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>10,84; 114,21</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>30,52; 212,13</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-42,15; 85,31</t>
         </is>
       </c>
     </row>
@@ -1139,37 +1447,57 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-17,16</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-16,69</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-18,06</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-26,34%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-24,77%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-26,43%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1182,70 +1510,114 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-32,39; -1,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-30,09; -0,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-30,87; -2,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-45,15; -2,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-41,7; -0,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-41,78; -4,11</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>3,82</t>
+          <t>9,77</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>13,8</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>10,99</t>
+          <t>7,18</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>41,82%</t>
+          <t>31,53</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>68,5%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>56,93%</t>
+          <t>35,6%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>18,38%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>59,56%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>358,19%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1258,74 +1630,110 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 13,16</t>
+          <t>-2,05; 24,37</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 26,59</t>
+          <t>-9,15; 12,34</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 21,95</t>
+          <t>-1,98; 16,45</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-39,27; 258,36</t>
+          <t>18,2; 44,67</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 185,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-16,81; 162,06</t>
+          <t>-6,21; 128,69</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-49,26; 160,81</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-14,46; 217,62</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>105,85; 996,74</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>8,85</t>
+          <t>-13,53</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>8,11</t>
+          <t>-16,59</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>6,03</t>
+          <t>-17,22</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>36,12%</t>
+          <t>-23,89</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>73,74%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>37,55%</t>
+          <t>-21,58%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-24,8%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-25,27%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-34,31%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1746,52 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>3,27; 13,12</t>
+          <t>-30,68; -1,34</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>4,01; 11,25</t>
+          <t>-30,63; -1,25</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>2,11; 9,94</t>
+          <t>-29,46; -3,06</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>11,38; 59,37</t>
+          <t>-40,98; 3,25</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>28,94; 118,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>11,24; 69,11</t>
+          <t>-42,88; -1,97</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-41,85; -2,24</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-40,79; -5,54</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-51,63; 3,32</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1371,37 +1799,57 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-13,44</t>
+          <t>3,76</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-14,66</t>
+          <t>14,19</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-14,91</t>
+          <t>10,04</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-20,4%</t>
+          <t>-7,64</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-20,79%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-21,5%</t>
+          <t>38,11%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>70,8%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>50,69%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>-35,43%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1862,52 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-18,04; -7,75</t>
+          <t>-5,09; 13,14</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-19,61; -9,47</t>
+          <t>2,05; 27,52</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-19,2; -10,34</t>
+          <t>-4,5; 21,0</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-26,47; -12,77</t>
+          <t>-34,21; 7,57</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-26,98; -14,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-26,89; -15,53</t>
+          <t>-37,25; 255,7</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>4,92; 194,28</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-17,75; 151,33</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-81,99; 90,39</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1447,37 +1915,57 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>4,59</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>6,55</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>8,88</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>47,72%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>35,36%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>60,81%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1490,44 +1978,539 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>1,38; 7,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>1,63; 11,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>5,56; 12,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>11,28; 90,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>6,21; 70,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>33,2; 101,02</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>8,54</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>8,55</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>5,73</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>12,25</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>2,74</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>34,46%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>80,48%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>35,51%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>84,37%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>15,45%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>3,49; 13,16</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>5,27; 12,34</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>2,36; 9,68</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>7,75; 16,81</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>-2,79; 8,03</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>11,85; 58,6</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>42,52; 137,62</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>12,48; 70,31</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>43,82; 139,28</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-13,56; 54,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>-13,68</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>-14,47</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>-14,88</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>-14,57</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>-7,87</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>-20,92%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-20,59%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-21,42%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>-21,21%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>-12,19%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>-18,64; -8,47</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-19,27; -9,49</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-18,96; -10,66</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-19,73; -7,1</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-14,71; -0,83</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-27,24; -13,54</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-26,49; -14,15</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-26,69; -15,96</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-27,65; -12,27</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-21,63; -1,35</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>5,14</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>5,92</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>9,15</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>2,33</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>5,13</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>52,42%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>31,0%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>63,5%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>13,87%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>29,03%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>1,91; 8,49</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>1,02; 10,01</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>5,64; 12,65</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-4,99; 6,98</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-0,55; 10,6</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>15,37; 107,81</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>3,93; 60,11</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>34,29; 100,68</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-24,6; 52,92</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>-2,75; 71,62</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_bre/P18_1-Urba-long_bre.xlsx
+++ b/data/long_bre/P18_1-Urba-long_bre.xlsx
@@ -640,7 +640,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -754,7 +754,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -868,7 +868,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -986,7 +986,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1100,7 +1100,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1214,7 +1214,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1434,7 +1434,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1536,7 +1536,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1756,7 +1756,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1870,7 +1870,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
